--- a/doc/CADDE_v4_document_list_202303.xlsx
+++ b/doc/CADDE_v4_document_list_202303.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hitachigroup.sharepoint.com/sites/hitachi_SIPDL_5/Shared Documents/12_成果物格納場所(V4)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1034" documentId="13_ncr:1_{F2465242-B728-4836-9C9D-7E515967F735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1C96B14-D68E-42A9-9D43-AE3CA6221CBA}"/>
+  <xr:revisionPtr revIDLastSave="1057" documentId="13_ncr:1_{F2465242-B728-4836-9C9D-7E515967F735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9FD5137-7584-4EF5-95BE-BF1A416D6A25}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E0014FB-1459-405D-8057-6AF8C5FCDF94}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">CADDE_v4_ドキュメントリスト_202203!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentManualCount="2"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
   <si>
     <r>
       <t xml:space="preserve">DCM格納ファイル名はＡ列、Ｆ列を結合( </t>
@@ -316,10 +316,6 @@
     <t>60_V4_設計書_認証認可基本設計書</t>
   </si>
   <si>
-    <t>10_基本設計書_認可GW_202303.docx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>30_基本設計書_認証・認可_202303.pptx</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -336,10 +332,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>80_基本設計書_認証・認可_別紙4_認可GW外部IF_202303.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>70_V4_設計書_認証認可詳細設計書</t>
   </si>
   <si>
@@ -347,45 +339,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>20_詳細設計書_認証機能_別紙1_内部IF定義_202303.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>30_詳細設計書_認証機能_別紙2_内部IF詳細_202303.xlsx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>40_詳細設計書_認証機能_別紙3_Keycloak設定_202303.xlsx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>50_詳細設計書_認可機能_202303.docx</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>60_詳細設計書_認可機能_別紙1_内部IF定義_202303.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>70_詳細設計書_認可機能_別紙2_内部IF詳細_202303.xlsx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>80_詳細設計書_認可機能_別紙3_Keycloak設定_202303.xlsx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>80_V4_設計書_認証認可KEYCLOAK設計書</t>
-  </si>
-  <si>
-    <t>30_Keycloak設定手順書_ver1.0_202303.xlsx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>70_基本設計書_認証認可サービス_202303.pptx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(4)_External Specification (APIs)</t>
   </si>
   <si>
@@ -557,6 +514,30 @@
   </si>
   <si>
     <t>50_分野間データ連携基盤「CADDE」に係る主要機能の外部仕様書_202303.docx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>80_基本設計書_認証・認可_別紙4_CADDEユーザ登録申請機能_202303.pptx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20_詳細設計書_認証機能_別紙1_処理詳細_202303.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30_詳細設計書_認証機能_別紙2_Keycloak設定_202303.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40_詳細設計書_認証機能_別紙3_人を介在しない認証_202303.pptx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60_詳細設計書_認可機能_別紙1_処理詳細_202303.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>70_詳細設計書_認可機能_別紙2_Keycloak設定_202303.xlsx</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1293,7 +1274,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1338,7 +1319,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>2</v>
@@ -1361,7 +1342,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>7</v>
@@ -1379,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>10</v>
@@ -1397,7 +1378,7 @@
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
@@ -1409,7 +1390,7 @@
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
@@ -1421,7 +1402,7 @@
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
@@ -1490,7 +1471,7 @@
     </row>
     <row r="15" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A15" s="11">
-        <f t="shared" ref="A15:A46" si="1">A14+1</f>
+        <f t="shared" ref="A15:A76" si="1">A14+1</f>
         <v>11</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -1500,10 +1481,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
@@ -1512,10 +1493,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>21</v>
@@ -1858,9 +1839,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="20"/>
-      <c r="C43" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="14" t="s">
         <v>54</v>
@@ -1899,497 +1878,460 @@
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="14" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A47" s="11">
-        <f t="shared" ref="A47:A80" si="2">A46+1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="14" t="s">
+      <c r="D47" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A48" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="19" t="s">
-        <v>59</v>
-      </c>
+      <c r="D48" s="20"/>
       <c r="E48" s="15" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A49" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
-      <c r="E49" s="15" t="s">
-        <v>61</v>
+      <c r="E49" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A50" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="14" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A51" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A52" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="C52" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="23"/>
       <c r="E52" s="14" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A53" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B53" s="20"/>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="23"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="14" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A54" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="14" t="s">
-        <v>66</v>
+      <c r="B54" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A55" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="14" t="s">
-        <v>67</v>
+      <c r="B55" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A56" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="C56" s="20"/>
-      <c r="D56" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>69</v>
-      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
     </row>
     <row r="57" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A57" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B57" s="21"/>
+      <c r="B57" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="C57" s="21"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="19" t="s">
-        <v>70</v>
-      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
     </row>
     <row r="58" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A58" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>117</v>
+      <c r="B58" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>118</v>
+        <v>65</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A59" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>7</v>
+      <c r="B59" s="26"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A60" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="61" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A61" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="62" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A62" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>75</v>
-      </c>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="14" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A63" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B63" s="26"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="19" t="s">
-        <v>78</v>
+      <c r="C63" s="26"/>
+      <c r="D63" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A64" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="14" t="s">
-        <v>80</v>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A65" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>81</v>
+      <c r="B65" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A66" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>82</v>
+      <c r="B66" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A67" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="14" t="s">
-        <v>108</v>
+      <c r="B67" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>7</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A68" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>84</v>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A69" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="15" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A70" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="15" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A71" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B71" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>97</v>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A72" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="15" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A73" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="15" t="s">
-        <v>99</v>
+      <c r="B73" s="20"/>
+      <c r="C73" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A74" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="15" t="s">
-        <v>100</v>
+      <c r="B74" s="20"/>
+      <c r="C74" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A75" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="15" t="s">
-        <v>101</v>
+      <c r="B75" s="20"/>
+      <c r="C75" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A76" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B76" s="28"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
-      <c r="A77" s="11">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D77" s="14" t="s">
+      <c r="B76" s="21"/>
+      <c r="C76" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
-      <c r="A78" s="11">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
-      <c r="A79" s="11">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="10" customFormat="1" ht="27" customHeight="1">
-      <c r="A80" s="11">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>95</v>
+      <c r="E76" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010002ECC5740E64E847B54B09632D7DC53A" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="0617be47d4a38f962b4e28c2c9b56d74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="94a0b324-fff8-47f8-93c2-91e47de8bffb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46f47a73faa942e2d2a121376fe753e3" ns2:_="">
     <xsd:import namespace="94a0b324-fff8-47f8-93c2-91e47de8bffb"/>
@@ -2521,22 +2463,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513D0603-8E2D-4AA7-B342-346BE03BE0D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94a0b324-fff8-47f8-93c2-91e47de8bffb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DDB6D5-FC43-4F6F-B81B-D0F8311DED06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E9989D8-62C0-4F16-AF64-7A74CC9E08BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2552,28 +2503,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DDB6D5-FC43-4F6F-B81B-D0F8311DED06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513D0603-8E2D-4AA7-B342-346BE03BE0D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="94a0b324-fff8-47f8-93c2-91e47de8bffb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/CADDE_v4_document_list_202303.xlsx
+++ b/doc/CADDE_v4_document_list_202303.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hitachigroup.sharepoint.com/sites/hitachi_SIPDL_5/Shared Documents/13_成果物格納場所(V4)_更新対応/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\70107118\HitachiXPC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{F0B3FDF9-5A93-449E-BAAA-7B0B622A4A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FECF1BBA-BF95-47CA-A910-FDEEFC60A367}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929B54F2-B4D6-4E7E-833D-5A16FE3CAE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E0014FB-1459-405D-8057-6AF8C5FCDF94}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <r>
       <t xml:space="preserve">DCM格納ファイル名はＡ列、Ｆ列を結合( </t>
@@ -540,6 +540,17 @@
   </si>
   <si>
     <t>50_CADDE4.0 運用ガイド(支援サービス群)_202303.docx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60_ユースケース実証</t>
+    <rPh sb="9" eb="11">
+      <t>ジッショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>readme.md</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1301,7 +1312,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1397,7 +1408,7 @@
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="9">
-        <f t="shared" ref="A7:A70" si="0">A6+1</f>
+        <f t="shared" ref="A7:A71" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="18"/>
@@ -1483,10 +1494,10 @@
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A14" s="9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="19"/>
+        <f>A12+1</f>
+        <v>9</v>
+      </c>
+      <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="12" t="s">
         <v>15</v>
@@ -1497,693 +1508,691 @@
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A15" s="9">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>105</v>
+        <f>A13+1</f>
+        <v>10</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="25" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="D18" s="16"/>
       <c r="E18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="28" t="s">
-        <v>24</v>
-      </c>
+      <c r="D19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="15"/>
       <c r="E20" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="15"/>
       <c r="E21" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="15"/>
       <c r="E22" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="18"/>
-      <c r="C23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="25" t="s">
-        <v>29</v>
+      <c r="C23" s="18"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="C24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="16"/>
       <c r="E24" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="E25" s="25" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="15"/>
       <c r="E26" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="25" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="20"/>
       <c r="E28" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="20"/>
       <c r="E29" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A30" s="9">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="20"/>
       <c r="E30" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A31" s="9">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="20"/>
       <c r="E31" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="20"/>
       <c r="E32" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="20"/>
       <c r="E33" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="20"/>
       <c r="E34" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="20"/>
       <c r="E35" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A36" s="9">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="20"/>
       <c r="E36" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A37" s="9">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="20"/>
       <c r="E37" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A38" s="9">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="20"/>
       <c r="E38" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A39" s="9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="21"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A40" s="9">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="18"/>
-      <c r="C40" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>46</v>
+      <c r="C40" s="18"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A41" s="9">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="25" t="s">
-        <v>47</v>
+      <c r="D41" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A42" s="9">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="D42" s="16"/>
       <c r="E42" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A43" s="9">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="15"/>
+      <c r="C43" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="E43" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A44" s="9">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="15"/>
       <c r="E44" s="25" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A45" s="9">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="15"/>
       <c r="E45" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A46" s="9">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="15"/>
       <c r="E46" s="25" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A47" s="9">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>52</v>
+      <c r="D47" s="15"/>
+      <c r="E47" s="25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A48" s="9">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="25" t="s">
-        <v>96</v>
+      <c r="D48" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A49" s="9">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="15"/>
       <c r="E49" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A50" s="9">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="15"/>
       <c r="E50" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="15"/>
       <c r="E51" s="25" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A52" s="9">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="18"/>
-      <c r="C52" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="25" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A53" s="9">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A54" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>92</v>
+        <v>49</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A55" s="9">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>6</v>
+      <c r="E55" s="31" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A56" s="9">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="57" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A57" s="9">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
     </row>
     <row r="58" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A58" s="9">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>106</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
     </row>
     <row r="59" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A59" s="9">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A60" s="9">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="16"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="E60" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A61" s="9">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
-      <c r="D61" s="15" t="s">
-        <v>80</v>
-      </c>
+      <c r="D61" s="16"/>
       <c r="E61" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A62" s="9">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
-      <c r="D62" s="12" t="s">
-        <v>81</v>
+      <c r="D62" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A63" s="9">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
       <c r="D63" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A64" s="9">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
+        <v>59</v>
+      </c>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
       <c r="D64" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>112</v>
+        <v>82</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A65" s="9">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B65" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>6</v>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A66" s="9">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>6</v>
@@ -2198,130 +2207,148 @@
     <row r="67" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A67" s="9">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B67" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="17" t="s">
+      <c r="B67" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="D67" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="E67" s="30" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A68" s="9">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="E68" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A69" s="9">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
       <c r="E69" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A70" s="9">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
       <c r="E70" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A71" s="9">
-        <f t="shared" ref="A71:A75" si="1">A70+1</f>
-        <v>67</v>
-      </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A72" s="9">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>71</v>
+        <f t="shared" ref="A72:A76" si="1">A71+1</f>
+        <v>67</v>
+      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="30" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A73" s="9">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" s="18"/>
-      <c r="C73" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D73" s="14" t="s">
+      <c r="C73" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="25" t="s">
-        <v>66</v>
+      <c r="E73" s="31" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A74" s="9">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="18"/>
-      <c r="C74" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D74" s="12" t="s">
+      <c r="C74" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A75" s="9">
         <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B75" s="19"/>
+        <v>70</v>
+      </c>
+      <c r="B75" s="18"/>
       <c r="C75" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="8" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A76" s="9">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="25" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2466,18 +2493,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2499,6 +2526,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DDB6D5-FC43-4F6F-B81B-D0F8311DED06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513D0603-8E2D-4AA7-B342-346BE03BE0D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2514,14 +2549,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DDB6D5-FC43-4F6F-B81B-D0F8311DED06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f54277c9-dafe-44aa-85a4-73d5c7c52450}" enabled="0" method="" siteId="{f54277c9-dafe-44aa-85a4-73d5c7c52450}" removed="1"/>
